--- a/data/trans_dic/POLIMEDICACION-Clase-trans_dic.xlsx
+++ b/data/trans_dic/POLIMEDICACION-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -562,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>1,62%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,56</t>
+          <t>3,12; 6,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,87; 4,48</t>
+          <t>1,26; 4,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,62; 6,69</t>
+          <t>0,45; 2,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,48; 4,4</t>
+          <t>1,36; 3,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,82; 7,83</t>
+          <t>3,89; 8,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,22; 3,05</t>
+          <t>1,23; 3,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,24; 2,89</t>
+          <t>2,6; 4,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,09; 5,45</t>
+          <t>2,85; 5,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,73; 4,47</t>
+          <t>1,05; 2,62</t>
         </is>
       </c>
     </row>
@@ -742,37 +743,37 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -782,7 +783,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>1,46%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,85; 3,73</t>
+          <t>3,41; 7,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,41; 7,2</t>
+          <t>2,77; 7,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,44; 7,41</t>
+          <t>0,43; 2,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,18</t>
+          <t>1,36; 3,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,12; 7,99</t>
+          <t>4,39; 9,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,87; 4,22</t>
+          <t>0,8; 3,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,35; 3,35</t>
+          <t>2,49; 4,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,2; 6,82</t>
+          <t>4,08; 7,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,91; 5,0</t>
+          <t>0,87; 2,62</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>8,75%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>10,07%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>4,95%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,87; 5,95</t>
+          <t>6,93; 11,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,95; 8,78</t>
+          <t>0,92; 7,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,3; 9,88</t>
+          <t>1,48; 4,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,59; 16,53</t>
+          <t>6,03; 12,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,48; 18,75</t>
+          <t>10,17; 21,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,78; 11,26</t>
+          <t>5,88; 16,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,14; 8,36</t>
+          <t>7,26; 10,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,13; 10,61</t>
+          <t>1,65; 10,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,51; 9,53</t>
+          <t>3,3; 7,14</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>9,04%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5,18%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>4,22%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>6,18%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>8,43%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>5,02%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,72; 6,01</t>
+          <t>7,2; 11,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,95; 7,62</t>
+          <t>3,58; 7,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,86; 10,31</t>
+          <t>2,55; 6,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,77; 8,86</t>
+          <t>5,23; 8,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,19; 7,81</t>
+          <t>1,94; 7,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,68; 7,77</t>
+          <t>3,95; 8,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,2; 6,91</t>
+          <t>6,63; 9,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,09; 7,31</t>
+          <t>2,99; 6,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,12; 8,26</t>
+          <t>3,77; 6,48</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>16,71%</t>
+          <t>14,28%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>10,6%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>3,53%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,24</t>
+          <t>4,29; 9,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,31; 8,13</t>
+          <t>1,62; 5,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,46; 8,88</t>
+          <t>0,31; 3,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,24; 10,51</t>
+          <t>7,33; 11,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,58; 19,67</t>
+          <t>7,94; 18,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,45; 11,73</t>
+          <t>3,57; 8,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,66; 6,09</t>
+          <t>6,81; 10,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,02; 14,65</t>
+          <t>7,44; 13,83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,98; 9,94</t>
+          <t>2,33; 5,35</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>0,72%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0,93%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,45%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,6%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>12,68%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>12,51%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>5,42%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>0,0; 3,78</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0,29; 2,97</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>0; 11,83</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,63; 3,16</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,48</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,67</t>
+          <t>10,11; 15,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,08; 14,71</t>
+          <t>10,36; 15,07</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,56; 12,65</t>
+          <t>0,0; 42,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,16</t>
+          <t>7,56; 11,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,88; 11,99</t>
+          <t>7,74; 11,59</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,13; 9,02</t>
+          <t>0,0; 23,4</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>9,15%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>3,25%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,03; 3,43</t>
+          <t>5,81; 7,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,37; 5,73</t>
+          <t>2,45; 4,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,56; 7,01</t>
+          <t>1,61; 2,89</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,24; 6,34</t>
+          <t>6,02; 7,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,19; 11,34</t>
+          <t>6,62; 10,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,75; 7,06</t>
+          <t>3,5; 5,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,22; 4,41</t>
+          <t>6,17; 7,35</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,27; 8,51</t>
+          <t>5,27; 7,49</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,85; 6,83</t>
+          <t>2,69; 3,81</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumir &gt;4 medicamentos de la lista completa de medicamentos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>6552</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>8805</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2945</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3245</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>17427</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>6338</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>9797</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>26232</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>9283</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>4549; 9115</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4619; 15335</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1331; 6652</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1949; 5092</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>11621; 25413</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3414; 11019</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>7494; 12901</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>18951; 35829</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>6022; 14994</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>4317</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>14739</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2370</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2423</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>16779</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3866</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6740</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>31518</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>6236</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2768; 6432</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>8990; 23129</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>837; 5424</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1486; 3862</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>11410; 23703</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1844; 7034</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4736; 9172</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>23848; 41281</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>3714; 11207</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>14336</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>15814</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4730</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>5498</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>14844</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>8334</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>19835</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>30658</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>13064</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>11351; 18261</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4352; 37349</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2670; 8250</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3809; 7746</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9920; 20838</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4867; 13892</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>16483; 24430</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9462; 59444</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8708; 18818</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>15385</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>27766</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>13016</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>11961</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>31152</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>18342</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>27346</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>58917</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>31358</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>12254; 19185</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>19181; 37541</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>7872; 20183</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>9259; 15249</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>12359; 50414</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>12490; 25315</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>23031; 32253</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>35050; 78147</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>23551; 40491</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>4958</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>6798</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>12503</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>60523</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>8781</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>17460</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>67321</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>10785</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3297; 7132</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3418; 12069</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>471; 5169</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>9744; 15804</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>33661; 78903</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>5531; 13542</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>14290; 21724</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>47275; 87817</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>7102; 16349</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1556</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>14992</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>61295</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1127</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>15319</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>62851</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1127</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1711</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>481; 4949</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1106</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>11963; 18299</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>50753; 73852</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4854</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>12369; 19173</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>50838; 76100</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4862</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>45875</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>75477</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>25064</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>50622</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>202019</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>46789</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>96497</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>277496</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>71853</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>39698; 52299</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>51001; 94103</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>18365; 32987</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>44762; 57416</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>146025; 233518</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>37581; 56688</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>88009; 104873</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>225912; 321098</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>59499; 84407</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/POLIMEDICACION-Clase-trans_dic.xlsx
+++ b/data/trans_dic/POLIMEDICACION-Clase-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumir &gt;4 medicamentos de la lista completa de medicamentos</t>
+          <t>Polimedicación (5 o más medicamentos)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1448,7 +1448,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumir &gt;4 medicamentos de la lista completa de medicamentos</t>
+          <t>Polimedicación (5 o más medicamentos)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/POLIMEDICACION-Clase-trans_dic.xlsx
+++ b/data/trans_dic/POLIMEDICACION-Clase-trans_dic.xlsx
@@ -1246,7 +1246,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 1106</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">

--- a/data/trans_dic/POLIMEDICACION-Clase-trans_dic.xlsx
+++ b/data/trans_dic/POLIMEDICACION-Clase-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polimedicación (5 o más medicamentos)</t>
+          <t>Polimedicación (5 o más medicamentos) (tasa de respuesta: 99,65%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1448,7 +1448,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polimedicación (5 o más medicamentos)</t>
+          <t>Polimedicación (5 o más medicamentos) (tasa de respuesta: 99,65%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/POLIMEDICACION-Clase-trans_dic.xlsx
+++ b/data/trans_dic/POLIMEDICACION-Clase-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,12; 6,25</t>
+          <t>2,7; 5,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,18</t>
+          <t>1,22; 4,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,56</t>
+          <t>1,25; 3,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,89; 8,5</t>
+          <t>3,9; 8,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,6; 4,47</t>
+          <t>2,28; 3,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,85; 5,38</t>
+          <t>2,84; 5,31</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,41; 7,92</t>
+          <t>3,52; 7,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,77; 7,14</t>
+          <t>2,79; 7,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,54</t>
+          <t>1,43; 3,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,39; 9,11</t>
+          <t>4,35; 9,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,49; 4,82</t>
+          <t>2,72; 5,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,08; 7,07</t>
+          <t>4,04; 7,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,93; 11,14</t>
+          <t>6,02; 9,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,92; 7,86</t>
+          <t>0,88; 8,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,03; 12,27</t>
+          <t>6,1; 12,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,17; 21,36</t>
+          <t>10,19; 20,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,26; 10,76</t>
+          <t>6,45; 9,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,65; 10,37</t>
+          <t>1,81; 10,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,2; 11,28</t>
+          <t>6,57; 10,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,58; 7,0</t>
+          <t>3,78; 7,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,23; 8,61</t>
+          <t>4,87; 8,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,94; 7,92</t>
+          <t>1,9; 7,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,63; 9,29</t>
+          <t>6,08; 8,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,99; 6,66</t>
+          <t>2,74; 6,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,29; 9,28</t>
+          <t>4,24; 9,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,62; 5,71</t>
+          <t>1,59; 5,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,33; 11,89</t>
+          <t>6,87; 11,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,94; 18,61</t>
+          <t>7,32; 18,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,81; 10,36</t>
+          <t>6,29; 9,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,44; 13,83</t>
+          <t>7,26; 13,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>10,62%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,78</t>
+          <t>0,0; 1,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,97</t>
+          <t>0,28; 2,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,11; 15,47</t>
+          <t>8,47; 13,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,36; 15,07</t>
+          <t>10,38; 14,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,56; 11,72</t>
+          <t>5,86; 9,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,74; 11,59</t>
+          <t>8,07; 11,69</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,81; 7,66</t>
+          <t>5,21; 6,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,45; 4,52</t>
+          <t>2,28; 4,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,02; 7,72</t>
+          <t>5,35; 6,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,62; 10,58</t>
+          <t>6,1; 10,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,17; 7,35</t>
+          <t>5,51; 6,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,27; 7,49</t>
+          <t>5,07; 7,41</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6552</t>
+          <t>6359</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3245</t>
+          <t>3461</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9797</t>
+          <t>9820</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4549; 9115</t>
+          <t>4395; 8720</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4619; 15335</t>
+          <t>4490; 14876</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1949; 5092</t>
+          <t>2110; 5368</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>11621; 25413</t>
+          <t>11659; 25749</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7494; 12901</t>
+          <t>7548; 12908</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18951; 35829</t>
+          <t>18933; 35316</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4317</t>
+          <t>4871</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2423</t>
+          <t>3159</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6740</t>
+          <t>8030</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1818,12 +1818,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2768; 6432</t>
+          <t>3186; 7204</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8990; 23129</t>
+          <t>9048; 23176</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1833,12 +1833,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1486; 3862</t>
+          <t>1751; 4880</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11410; 23703</t>
+          <t>11323; 23889</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4736; 9172</t>
+          <t>5795; 10769</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>23848; 41281</t>
+          <t>23571; 41316</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14336</t>
+          <t>11662</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5498</t>
+          <t>5410</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19835</t>
+          <t>17071</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>11351; 18261</t>
+          <t>9270; 14499</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4352; 37349</t>
+          <t>4183; 38152</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1996,12 +1996,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3809; 7746</t>
+          <t>3757; 7618</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>9920; 20838</t>
+          <t>9937; 20072</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -2011,12 +2011,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>16483; 24430</t>
+          <t>13890; 20791</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>9462; 59444</t>
+          <t>10350; 58876</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>15385</t>
+          <t>14072</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>11961</t>
+          <t>11323</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>27346</t>
+          <t>25394</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12254; 19185</t>
+          <t>11153; 17318</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19181; 37541</t>
+          <t>20260; 38848</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2159,12 +2159,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9259; 15249</t>
+          <t>8868; 14607</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>12359; 50414</t>
+          <t>12108; 50468</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -2174,12 +2174,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>23031; 32253</t>
+          <t>21389; 29837</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>35050; 78147</t>
+          <t>32187; 78224</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4958</t>
+          <t>4681</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12503</t>
+          <t>10919</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17460</t>
+          <t>15600</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>3297; 7132</t>
+          <t>3160; 6856</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3418; 12069</t>
+          <t>3365; 12034</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2322,12 +2322,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>9744; 15804</t>
+          <t>8616; 13825</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>33661; 78903</t>
+          <t>31031; 77874</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -2337,12 +2337,12 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>14290; 21724</t>
+          <t>12572; 18876</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>47275; 87817</t>
+          <t>46119; 86699</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>225</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>14992</t>
+          <t>13023</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>15319</t>
+          <t>13248</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2470,12 +2470,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 1711</t>
+          <t>0; 1047</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>481; 4949</t>
+          <t>465; 4584</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -2485,12 +2485,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>11963; 18299</t>
+          <t>10379; 16024</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>50753; 73852</t>
+          <t>50845; 73150</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -2500,12 +2500,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>12369; 19173</t>
+          <t>10449; 16262</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>50838; 76100</t>
+          <t>52984; 76755</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>45875</t>
+          <t>41869</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>50622</t>
+          <t>47295</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>96497</t>
+          <t>89164</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2633,12 +2633,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>39698; 52299</t>
+          <t>36852; 47498</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>51001; 94103</t>
+          <t>47331; 94593</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -2648,12 +2648,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>44762; 57416</t>
+          <t>41915; 52817</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>146025; 233518</t>
+          <t>134716; 237359</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2663,12 +2663,12 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>88009; 104873</t>
+          <t>82096; 96389</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>225912; 321098</t>
+          <t>217480; 317702</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">

--- a/data/trans_dic/POLIMEDICACION-Clase-trans_dic.xlsx
+++ b/data/trans_dic/POLIMEDICACION-Clase-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>2,42%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1,0%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>3,91%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,4%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,0%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>6,2%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2,29%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>2,05%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>5,83%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>2,29%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>4,13%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,62%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>2,96%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>3,94%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>1,62%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>1,29; 4,07</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,45; 2,25</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>2,7; 5,36</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>1,22; 4,06</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,45; 2,25</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>4,21; 9,14</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1,23; 3,98</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>1,25; 3,18</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>3,9; 8,61</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>1,23; 3,98</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>3,02; 5,54</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1,05; 2,62</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>2,28; 3,9</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>2,84; 5,31</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>1,05; 2,62</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>4,33%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1,21%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>5,39%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>4,55%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,21%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>6,04%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1,67%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>2,58%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>6,45%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>1,67%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>5,11%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1,46%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>3,77%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>5,4%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>1,46%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>2,67; 6,71</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0,43; 2,77</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>3,52; 7,97</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2,79; 7,15</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,43; 2,77</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>4,0; 8,59</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0,8; 3,03</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>1,43; 3,98</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>4,35; 9,19</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,8; 3,03</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>3,86; 6,66</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0,87; 2,62</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>2,72; 5,05</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>4,04; 7,07</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>0,87; 2,62</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>6,41%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2,61%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>7,58%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,33%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,61%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>14,89%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>10,07%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>8,78%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>15,21%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>10,07%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>8,95%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>4,95%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>7,92%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>5,35%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>4,95%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>4,14; 9,9</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1,48; 4,56</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>6,02; 9,42</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,88; 8,02</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1,48; 4,56</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>10,01; 20,31</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5,88; 16,78</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>6,1; 12,36</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>10,19; 20,57</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>5,88; 16,78</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>6,75; 11,72</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3,3; 7,14</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>6,45; 9,65</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>1,81; 10,28</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>3,3; 7,14</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>4,9%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4,22%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>8,29%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>5,18%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,22%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>7,06%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5,81%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>6,21%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>4,89%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>5,81%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>5,87%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>5,02%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>7,22%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>5,02%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>5,02%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>3,54; 6,79</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2,55; 6,54</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>6,57; 10,2</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>3,78; 7,25</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2,55; 6,54</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>5,51; 9,1</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3,95; 8,01</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>4,87; 8,02</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>1,9; 7,93</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>3,95; 8,01</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>4,71; 7,15</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3,77; 6,48</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>6,08; 8,48</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>2,74; 6,67</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>3,77; 6,48</t>
         </is>
       </c>
     </row>
@@ -1073,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>2,85%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,33%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>6,29%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>3,22%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,33%</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>15,61%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5,66%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>8,71%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>14,28%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>5,66%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>10,72%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3,53%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>7,81%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>10,6%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>3,53%</t>
         </is>
       </c>
     </row>
@@ -1126,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>1,4; 5,01</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,31; 3,44</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>4,24; 9,21</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>1,59; 5,7</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,31; 3,44</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>12,81; 18,58</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3,57; 8,73</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>6,87; 11,02</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>7,32; 18,37</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>3,57; 8,73</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>8,85; 12,78</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2,33; 5,35</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>6,29; 9,44</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>7,26; 13,65</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>2,33; 5,35</t>
         </is>
       </c>
     </row>
@@ -1183,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>0,95%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>0,4%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,93%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>12,42%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>9,86%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>10,62%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>12,51%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>9,86%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>9,71%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>5,42%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>7,43%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>9,57%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>5,42%</t>
         </is>
       </c>
     </row>
@@ -1236,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>0,29; 2,73</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>0,0; 1,88</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,28; 2,75</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>10,23; 14,69</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 42,45</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>8,47; 13,07</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>10,38; 14,93</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 42,45</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>8,23; 11,77</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 23,4</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>5,86; 9,13</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>8,07; 11,69</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 23,4</t>
         </is>
       </c>
     </row>
@@ -1293,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>3,93%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2,2%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>5,92%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>3,63%</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>2,2%</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>10,16%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>4,36%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>6,04%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>9,15%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>4,36%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>7,14%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3,25%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>5,98%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>6,47%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>3,25%</t>
         </is>
       </c>
     </row>
@@ -1346,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>3,25; 4,81</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1,61; 2,89</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>5,21; 6,72</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>2,28; 4,55</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>1,61; 2,89</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>9,14; 11,29</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>3,5; 5,28</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>5,35; 6,74</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>6,1; 10,75</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>3,5; 5,28</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>6,53; 7,84</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2,69; 3,81</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>5,51; 6,47</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>5,07; 7,41</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>2,69; 3,81</t>
         </is>
       </c>
     </row>
@@ -1479,47 +1479,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>39</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>58</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>20</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>9554</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2945</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>6359</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>8805</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2945</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>20320</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>6338</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>3461</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>17427</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>6338</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>29874</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>9283</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>9820</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>26232</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>9283</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>5087; 16080</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1331; 6652</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>4395; 8720</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>4490; 14876</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1331; 6652</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>13789; 29947</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3414; 11019</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>2110; 5368</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>11659; 25749</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>3414; 11019</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>21849; 40067</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>6022; 14994</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>7548; 12908</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>18933; 35316</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>6022; 14994</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>42</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>17</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>14915</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2370</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>4871</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>14739</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2370</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>17331</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3866</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>3159</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>16779</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>3866</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>32246</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>6236</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>8030</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>31518</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>6236</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>9191; 23115</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>837; 5424</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>3186; 7204</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>9048; 23176</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>837; 5424</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>11487; 24650</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1844; 7034</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>1751; 4880</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>11323; 23889</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>1844; 7034</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>24366; 42052</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3714; 11207</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>5795; 10769</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>23571; 41316</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>3714; 11207</t>
         </is>
       </c>
     </row>
@@ -1875,47 +1875,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>72</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>32</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>104</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>30</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>16698</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4730</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>11662</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>15814</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>4730</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>16602</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>8334</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>5410</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>14844</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>8334</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>33301</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>13064</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>17071</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>30658</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>13064</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>10799; 25806</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2670; 8250</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>9270; 14499</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>4183; 38152</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2670; 8250</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>11160; 22640</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4867; 13892</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>3757; 7618</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>9937; 20072</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>4867; 13892</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>25127; 43603</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8708; 18818</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>13890; 20791</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>10350; 58876</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>8708; 18818</t>
         </is>
       </c>
     </row>
@@ -2038,47 +2038,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>86</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>69</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>155</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>61</t>
         </is>
       </c>
     </row>
@@ -2091,47 +2091,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>29916</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>13016</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>14072</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>27766</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>13016</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>34612</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>18342</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>11323</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>31152</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>18342</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>64528</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>31358</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>25394</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>58917</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>31358</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>21619; 41440</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>7872; 20183</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>11153; 17318</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>20260; 38848</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>7872; 20183</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>26991; 44596</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>12490; 25315</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>8868; 14607</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>12108; 50468</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>12490; 25315</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>51849; 78620</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>23551; 40491</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>21389; 29837</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>32187; 78224</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>23551; 40491</t>
         </is>
       </c>
     </row>
@@ -2201,47 +2201,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>28</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>69</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>97</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>23</t>
         </is>
       </c>
     </row>
@@ -2254,47 +2254,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>7219</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>4681</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>6798</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>63697</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>8781</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>10919</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>60523</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>8781</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>70916</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>10785</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>15600</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>67321</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>10785</t>
         </is>
       </c>
     </row>
@@ -2307,47 +2307,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>3552; 12700</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>471; 5169</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>3160; 6856</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>3365; 12034</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>471; 5169</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>52283; 75796</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>5531; 13542</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>8616; 13825</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>31031; 77874</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>5531; 13542</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>58547; 84544</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>7102; 16349</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>12572; 18876</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>46119; 86699</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>7102; 16349</t>
         </is>
       </c>
     </row>
@@ -2364,47 +2364,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>85</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>113</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="I19" s="2" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>86</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>
@@ -2417,47 +2417,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>1604</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>225</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>1556</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>67921</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1127</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
           <t>13023</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>61295</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>69525</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
         <is>
           <t>1127</t>
         </is>
       </c>
-      <c r="I20" s="2" t="inlineStr">
+      <c r="K20" s="2" t="inlineStr">
         <is>
           <t>13248</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>62851</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>1127</t>
         </is>
       </c>
     </row>
@@ -2470,47 +2470,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>485; 4628</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
           <t>0; 1047</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>465; 4584</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
+          <t>55942; 80322</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4854</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
           <t>10379; 16024</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>50845; 73150</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>0; 4854</t>
-        </is>
-      </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
+          <t>58965; 84341</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4862</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
           <t>10449; 16262</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>52984; 76755</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>0; 4862</t>
         </is>
       </c>
     </row>
@@ -2527,47 +2527,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>251</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
           <t>291</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>361</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
           <t>542</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>466</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>153</t>
         </is>
       </c>
     </row>
@@ -2580,47 +2580,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>79907</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>25064</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
           <t>41869</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>75477</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>25064</t>
-        </is>
-      </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
+          <t>220483</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>46789</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
           <t>47295</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>202019</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>46789</t>
-        </is>
-      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
+          <t>300390</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>71853</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
           <t>89164</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>277496</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>71853</t>
         </is>
       </c>
     </row>
@@ -2633,47 +2633,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>66175; 97787</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>18365; 32987</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
           <t>36852; 47498</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>47331; 94593</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>18365; 32987</t>
-        </is>
-      </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
+          <t>198365; 245185</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>37581; 56688</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
           <t>41915; 52817</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>134716; 237359</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>37581; 56688</t>
-        </is>
-      </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
+          <t>274421; 329580</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>59499; 84407</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
           <t>82096; 96389</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>217480; 317702</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>59499; 84407</t>
         </is>
       </c>
     </row>
